--- a/GPAE Performance.xlsx
+++ b/GPAE Performance.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Grad\CSCE 5214 Soft dev for AI\GPAE\pysearch\opencv-age-detection\GPAE\Gender-and-Age-Recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7945EF1E-5B31-4956-B30E-39B319BBD585}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6295640-3AF4-4FF4-AB44-D4E56403E42C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2685413D-F0C7-4B3C-937F-0B0BEEABC251}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="48">
   <si>
     <t>Test Image</t>
   </si>
@@ -141,9 +141,6 @@
     <t>0017.jpg</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>0018.jpg</t>
   </si>
   <si>
@@ -157,6 +154,30 @@
   </si>
   <si>
     <t>Mean Age</t>
+  </si>
+  <si>
+    <t>0022.jpg</t>
+  </si>
+  <si>
+    <t>0023.jpg</t>
+  </si>
+  <si>
+    <t>0024.jpg</t>
+  </si>
+  <si>
+    <t>0025.jpg</t>
+  </si>
+  <si>
+    <t>0026.jpg</t>
+  </si>
+  <si>
+    <t>0027.jpg</t>
+  </si>
+  <si>
+    <t>0028.jpg</t>
+  </si>
+  <si>
+    <t>0029.jpg</t>
   </si>
 </sst>
 </file>
@@ -235,13 +256,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -558,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CCAD2A-7369-4296-ACA7-BD33C8471A8B}">
-  <dimension ref="A3:K25"/>
+  <dimension ref="A3:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,7 +600,7 @@
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -589,25 +610,25 @@
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>8</v>
@@ -619,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>9</v>
@@ -1189,7 +1210,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1225,7 +1246,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>7</v>
@@ -1260,7 +1281,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>14</v>
@@ -1295,7 +1316,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>7</v>
@@ -1330,7 +1351,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>7</v>
@@ -1348,7 +1369,7 @@
         <v>36.32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>33</v>
@@ -1360,6 +1381,259 @@
         <v>43.11</v>
       </c>
       <c r="K25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="F26" s="1">
+        <v>42.7</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="J26" s="1">
+        <v>56.81</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="F27" s="1">
+        <v>86.01</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="5">
+        <v>28.5</v>
+      </c>
+      <c r="J27" s="1">
+        <v>62.27</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="F28" s="1">
+        <v>85.02</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>99.58</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1">
+        <v>19</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="F29" s="1">
+        <v>88.02</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="5">
+        <v>28.5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>63.01</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="F30" s="1">
+        <v>95.42</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="J30" s="1">
+        <v>90.37</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>51.3</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="J31" s="1">
+        <v>89.24</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>21</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="F32" s="1">
+        <v>39.9</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="J32" s="1">
+        <v>36.99</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
     </row>
